--- a/sg02/Assets/Resources/Config/Excel/WiseSkill.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/WiseSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="193">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,11 +300,407 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化解计策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包围敌军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太公阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷袭敌军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护主将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蝉脱壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十面埋伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封武将技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名,包括等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞士气(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降敌士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后选出阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱敌将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱敌将(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少疲劳(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间计(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓集气(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留气力(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速集气(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复技力(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技力(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加体力(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱敌军(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化士兵(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强攻击(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞士气(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降敌士气(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝阻敌军(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加经验(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化武将(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>逼近敌军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 57</t>
+    <t>鼓舞士气(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降敌士气(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱敌将(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱敌将(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少疲劳(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少疲劳(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间计(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间计(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓集气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓集气(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减缓集气(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留气力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留气力(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留气力(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速集气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速集气(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速集气(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复技力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复技力(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复技力(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技力(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加技力(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加体力(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加体力(高)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,167 +708,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包围敌军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乱阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太公阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偷袭敌军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保护主将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劝降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蝉脱壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十面埋伏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封武将技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
+    <t>混乱敌军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱敌军(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化士兵(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱敌军(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化士兵(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强攻击(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加经验(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强攻击(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加经验(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝阻敌军(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化武将(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝阻敌军(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化武将(高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降敌士气(初)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞士气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,8 +828,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -890,15 +1203,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,16 +1229,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -935,16 +1255,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -958,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -966,9 +1289,12 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -978,20 +1304,23 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1001,20 +1330,23 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>120</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1026,18 +1358,21 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>130</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1047,20 +1382,23 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>140</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1070,20 +1408,23 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>140</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1093,20 +1434,23 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>160</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1116,20 +1460,23 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>160</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1139,20 +1486,23 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>160</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -1162,19 +1512,22 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>160</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1187,17 +1540,20 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>136</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>170</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1208,19 +1564,22 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>170</v>
       </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1231,19 +1590,22 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>180</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1254,19 +1616,22 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>180</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1277,19 +1642,22 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>180</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1302,17 +1670,20 @@
       <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>131</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>190</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1325,17 +1696,20 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>132</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>190</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1348,17 +1722,20 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>133</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1371,17 +1748,20 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>134</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>200</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1394,17 +1774,20 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>135</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>200</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1417,17 +1800,20 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>137</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>210</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1440,17 +1826,20 @@
       <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>138</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>220</v>
       </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1463,17 +1852,20 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>139</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>230</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1484,44 +1876,50 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>230</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>230</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>73</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>230</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -1530,42 +1928,48 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>240</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>240</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1576,44 +1980,50 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>240</v>
       </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>250</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>80</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>250</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -1622,116 +2032,131 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>250</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>250</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>84</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>250</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>250</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>250</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>260</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>90</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>260</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>270</v>
       </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1739,22 +2164,25 @@
       <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>149</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>270</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -1762,22 +2190,25 @@
       <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="E38">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>152</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>280</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -1785,22 +2216,25 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="E39">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>155</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>280</v>
       </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1808,68 +2242,77 @@
       <c r="D40" t="s">
         <v>36</v>
       </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>158</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>280</v>
       </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>141</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>300</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42">
-        <v>0</v>
+      <c r="E42" t="s">
+        <v>142</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>300</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1877,22 +2320,25 @@
       <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="E43">
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>161</v>
       </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>320</v>
       </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -1900,19 +2346,22 @@
       <c r="D44" t="s">
         <v>44</v>
       </c>
-      <c r="E44">
-        <v>0</v>
+      <c r="E44" t="s">
+        <v>164</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>320</v>
       </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -1923,19 +2372,22 @@
       <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="E45">
-        <v>0</v>
+      <c r="E45" t="s">
+        <v>167</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>340</v>
       </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
@@ -1946,45 +2398,51 @@
       <c r="D46" t="s">
         <v>50</v>
       </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="E46" t="s">
+        <v>170</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>340</v>
       </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
       </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>350</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -1992,19 +2450,22 @@
       <c r="D48" t="s">
         <v>55</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>179</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>360</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
@@ -2013,24 +2474,27 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>360</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -2038,22 +2502,25 @@
       <c r="D50" t="s">
         <v>65</v>
       </c>
-      <c r="E50">
-        <v>0</v>
+      <c r="E50" t="s">
+        <v>184</v>
       </c>
       <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>370</v>
       </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -2061,22 +2528,25 @@
       <c r="D51" t="s">
         <v>63</v>
       </c>
-      <c r="E51">
-        <v>0</v>
+      <c r="E51" t="s">
+        <v>187</v>
       </c>
       <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>380</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -2084,17 +2554,20 @@
       <c r="D52" t="s">
         <v>68</v>
       </c>
-      <c r="E52">
-        <v>0</v>
+      <c r="E52" t="s">
+        <v>188</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>390</v>
       </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2102,252 +2575,285 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
-      <c r="E53">
-        <v>0</v>
+      <c r="E53" t="s">
+        <v>147</v>
       </c>
       <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>400</v>
       </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="E54">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>144</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>400</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
         <v>36</v>
       </c>
-      <c r="E55">
-        <v>0</v>
+      <c r="E55" t="s">
+        <v>159</v>
       </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>410</v>
       </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
       </c>
-      <c r="E56">
-        <v>0</v>
+      <c r="E56" t="s">
+        <v>153</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>410</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
       </c>
       <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>420</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>109</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>420</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
       </c>
-      <c r="E58">
-        <v>0</v>
+      <c r="E58" t="s">
+        <v>150</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>420</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
       </c>
-      <c r="E59">
-        <v>0</v>
+      <c r="E59" t="s">
+        <v>156</v>
       </c>
       <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>420</v>
       </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
         <v>42</v>
       </c>
-      <c r="E60">
-        <v>0</v>
+      <c r="E60" t="s">
+        <v>162</v>
       </c>
       <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>430</v>
       </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
       </c>
-      <c r="E61">
-        <v>0</v>
+      <c r="E61" t="s">
+        <v>165</v>
       </c>
       <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>430</v>
       </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
       </c>
       <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>450</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>113</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>450</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>114</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
       </c>
-      <c r="E63">
-        <v>0</v>
+      <c r="E63" t="s">
+        <v>168</v>
       </c>
       <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>450</v>
       </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2355,156 +2861,177 @@
         <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
         <v>50</v>
       </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>171</v>
       </c>
       <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>450</v>
       </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="E65">
-        <v>0</v>
+      <c r="E65" t="s">
+        <v>180</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>460</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
         <v>55</v>
       </c>
-      <c r="E66">
-        <v>0</v>
+      <c r="E66" t="s">
+        <v>181</v>
       </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>460</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
         <v>58</v>
       </c>
-      <c r="E67">
-        <v>0</v>
+      <c r="E67" t="s">
+        <v>185</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>460</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
         <v>65</v>
       </c>
-      <c r="E68">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>186</v>
       </c>
       <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>470</v>
       </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
       </c>
-      <c r="E69">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>189</v>
       </c>
       <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>480</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
         <v>68</v>
       </c>
-      <c r="E70">
-        <v>0</v>
+      <c r="E70" t="s">
+        <v>190</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>490</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>28</v>
       </c>
     </row>
